--- a/噪声正确率.xlsx
+++ b/噪声正确率.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="740" yWindow="6880" windowWidth="24960" windowHeight="8820" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="6180" windowWidth="24960" windowHeight="8820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>NOISE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,26 @@
   </si>
   <si>
     <t>monk1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p值－正确率 变化表</t>
+    <rPh sb="1" eb="2">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng que lü</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bian hua</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>biao</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>australian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +98,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +132,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体 (正文)"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -130,21 +157,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -419,38 +456,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4">
@@ -678,15 +715,15 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B22">
@@ -913,11 +950,278 @@
         <v>0.49309999999999998</v>
       </c>
     </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>0.1</v>
+      </c>
+      <c r="C33">
+        <v>0.79259999999999997</v>
+      </c>
+      <c r="E33">
+        <v>0.65710000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>0.2</v>
+      </c>
+      <c r="C34">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="E34">
+        <v>0.64490000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>0.3</v>
+      </c>
+      <c r="C35">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="E35">
+        <v>0.63880000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>0.4</v>
+      </c>
+      <c r="C36">
+        <v>0.80740000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.63670000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="E37">
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>0.6</v>
+      </c>
+      <c r="C38">
+        <v>0.75560000000000005</v>
+      </c>
+      <c r="E38">
+        <v>0.86329999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>0.7</v>
+      </c>
+      <c r="C39">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="E39">
+        <v>0.63670000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>0.8</v>
+      </c>
+      <c r="C40">
+        <v>0.73329999999999995</v>
+      </c>
+      <c r="E40">
+        <v>0.86119999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>0.9</v>
+      </c>
+      <c r="C41">
+        <v>0.74070000000000003</v>
+      </c>
+      <c r="E41">
+        <v>0.63470000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="E42">
+        <v>0.63470000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C43">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.71220000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>1.2</v>
+      </c>
+      <c r="C44">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="E44">
+        <v>0.71840000000000004</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>1.3</v>
+      </c>
+      <c r="C45">
+        <v>0.77039999999999997</v>
+      </c>
+      <c r="E45">
+        <v>0.72240000000000004</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46">
+        <v>1.4</v>
+      </c>
+      <c r="C46">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="E46">
+        <v>0.85709999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47">
+        <v>1.5</v>
+      </c>
+      <c r="C47">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="E47">
+        <v>0.82040000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <v>1.6</v>
+      </c>
+      <c r="C48">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="E48">
+        <v>0.86329999999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <v>1.7</v>
+      </c>
+      <c r="C49">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="E49">
+        <v>0.85919999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <v>1.8</v>
+      </c>
+      <c r="C50">
+        <v>0.8296</v>
+      </c>
+      <c r="E50">
+        <v>0.85919999999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <v>1.9</v>
+      </c>
+      <c r="C51">
+        <v>0.8296</v>
+      </c>
+      <c r="E51">
+        <v>0.86119999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="E52">
+        <v>0.86119999999999997</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A20:G20"/>
+    <mergeCell ref="A30:K31"/>
+    <mergeCell ref="B32:C32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/噪声正确率.xlsx
+++ b/噪声正确率.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="6180" windowWidth="24960" windowHeight="8820" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="4240" windowWidth="24960" windowHeight="8820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>NOISE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>australian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blood</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -529,37 +537,37 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.86670000000000003</v>
+        <v>0.87409999999999999</v>
       </c>
       <c r="C5">
-        <v>0.81479999999999997</v>
+        <v>0.88149999999999995</v>
       </c>
       <c r="D5">
-        <v>0.8</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="E5">
-        <v>0.8</v>
+        <v>0.80740000000000001</v>
       </c>
       <c r="F5">
-        <v>0.74070000000000003</v>
+        <v>0.79259999999999997</v>
       </c>
       <c r="G5">
+        <v>0.74809999999999999</v>
+      </c>
+      <c r="H5">
         <v>0.71850000000000003</v>
       </c>
-      <c r="H5">
-        <v>0.72589999999999999</v>
-      </c>
       <c r="I5">
-        <v>0.71850000000000003</v>
+        <v>0.69630000000000003</v>
       </c>
       <c r="J5">
-        <v>0.69630000000000003</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="K5">
-        <v>0.68149999999999999</v>
+        <v>0.68889999999999996</v>
       </c>
       <c r="L5">
-        <v>0.66669999999999996</v>
+        <v>0.68889999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
@@ -712,6 +720,44 @@
       </c>
       <c r="L9">
         <v>0.50690000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.84760000000000002</v>
+      </c>
+      <c r="C10">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="E10">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="F10">
+        <v>0.83960000000000001</v>
+      </c>
+      <c r="G10">
+        <v>0.84219999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.83689999999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.83420000000000005</v>
+      </c>
+      <c r="J10">
+        <v>0.82889999999999997</v>
+      </c>
+      <c r="K10">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="L10">
+        <v>0.82089999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
@@ -948,6 +994,44 @@
       </c>
       <c r="L27">
         <v>0.49309999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="C28">
+        <v>0.81020000000000003</v>
+      </c>
+      <c r="D28">
+        <v>0.8075</v>
+      </c>
+      <c r="E28">
+        <v>0.81020000000000003</v>
+      </c>
+      <c r="F28">
+        <v>0.8075</v>
+      </c>
+      <c r="G28">
+        <v>0.81020000000000003</v>
+      </c>
+      <c r="H28">
+        <v>0.82620000000000005</v>
+      </c>
+      <c r="I28">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="J28">
+        <v>0.81820000000000004</v>
+      </c>
+      <c r="K28">
+        <v>0.8155</v>
+      </c>
+      <c r="L28">
+        <v>0.8075</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">

--- a/噪声正确率.xlsx
+++ b/噪声正确率.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="700" yWindow="4240" windowWidth="24960" windowHeight="8820" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>NOISE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,34 @@
   </si>
   <si>
     <t>blood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月22号更新noise</t>
+    <rPh sb="2" eb="3">
+      <t>yue</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>hao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>geng xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>ptwsvm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>twsvm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,8 +193,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -184,12 +222,22 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -464,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -488,16 +536,28 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>0</v>
       </c>
@@ -531,8 +591,41 @@
       <c r="L4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1.5</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+      <c r="T4">
+        <v>2.5</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>3.5</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>4.5</v>
+      </c>
+      <c r="Y4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -569,8 +662,44 @@
       <c r="L5">
         <v>0.68889999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5">
+        <v>0.87409999999999999</v>
+      </c>
+      <c r="P5">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="Q5">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="R5">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="S5">
+        <v>0.85929999999999995</v>
+      </c>
+      <c r="T5">
+        <v>0.84440000000000004</v>
+      </c>
+      <c r="U5">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="V5">
+        <v>0.8296</v>
+      </c>
+      <c r="W5">
+        <v>0.8296</v>
+      </c>
+      <c r="X5">
+        <v>0.8296</v>
+      </c>
+      <c r="Y5">
+        <v>0.8296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -608,7 +737,7 @@
         <v>0.63270000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -646,7 +775,7 @@
         <v>0.71789999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -684,7 +813,7 @@
         <v>0.40400000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -722,7 +851,7 @@
         <v>0.50690000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -760,7 +889,7 @@
         <v>0.82089999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
@@ -770,8 +899,11 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>0</v>
       </c>
@@ -805,8 +937,41 @@
       <c r="L22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>1.5</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <v>2.5</v>
+      </c>
+      <c r="U22">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>3.5</v>
+      </c>
+      <c r="W22">
+        <v>4</v>
+      </c>
+      <c r="X22">
+        <v>4.5</v>
+      </c>
+      <c r="Y22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -843,8 +1008,14 @@
       <c r="L23">
         <v>0.57779999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="N23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O23">
+        <v>0.8296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -882,7 +1053,7 @@
         <v>0.60609999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -920,7 +1091,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -958,7 +1129,7 @@
         <v>0.48399999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -996,7 +1167,7 @@
         <v>0.49309999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1034,7 +1205,7 @@
         <v>0.8075</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1049,7 +1220,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1062,7 +1233,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
         <v>2</v>
@@ -1300,7 +1471,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="N1:T1"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A20:G20"/>

--- a/噪声正确率.xlsx
+++ b/噪声正确率.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -515,7 +515,7 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1014,6 +1014,12 @@
       <c r="O23">
         <v>0.8296</v>
       </c>
+      <c r="Q23">
+        <v>0.8296</v>
+      </c>
+      <c r="S23">
+        <v>0.82220000000000004</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
